--- a/natmiOut/OldD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H2">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I2">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J2">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.84004513116872</v>
+        <v>4.852247500000001</v>
       </c>
       <c r="N2">
-        <v>4.84004513116872</v>
+        <v>9.704495000000001</v>
       </c>
       <c r="O2">
-        <v>0.07835201909793209</v>
+        <v>0.07727655765211351</v>
       </c>
       <c r="P2">
-        <v>0.07835201909793209</v>
+        <v>0.05509289466154204</v>
       </c>
       <c r="Q2">
-        <v>1.042669085050333</v>
+        <v>1.359931319745834</v>
       </c>
       <c r="R2">
-        <v>1.042669085050333</v>
+        <v>8.159587918475001</v>
       </c>
       <c r="S2">
-        <v>0.04518486452550995</v>
+        <v>0.03367870974291785</v>
       </c>
       <c r="T2">
-        <v>0.04518486452550995</v>
+        <v>0.02649024640375525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H3">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I3">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J3">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.31817722710407</v>
+        <v>3.405918</v>
       </c>
       <c r="N3">
-        <v>3.31817722710407</v>
+        <v>10.217754</v>
       </c>
       <c r="O3">
-        <v>0.05371559116135823</v>
+        <v>0.05424241419782711</v>
       </c>
       <c r="P3">
-        <v>0.05371559116135823</v>
+        <v>0.05800669120851211</v>
       </c>
       <c r="Q3">
-        <v>0.7148199489173002</v>
+        <v>0.95457096133</v>
       </c>
       <c r="R3">
-        <v>0.7148199489173002</v>
+        <v>8.591138651969999</v>
       </c>
       <c r="S3">
-        <v>0.03097727075163159</v>
+        <v>0.0236399573043583</v>
       </c>
       <c r="T3">
-        <v>0.03097727075163159</v>
+        <v>0.02789128348800796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H4">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I4">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J4">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.5643654904653</v>
+        <v>18.37682</v>
       </c>
       <c r="N4">
-        <v>17.5643654904653</v>
+        <v>55.13046</v>
       </c>
       <c r="O4">
-        <v>0.2843369148542807</v>
+        <v>0.2926679626693635</v>
       </c>
       <c r="P4">
-        <v>0.2843369148542807</v>
+        <v>0.3129783286427946</v>
       </c>
       <c r="Q4">
-        <v>3.78381200982952</v>
+        <v>5.150440713366667</v>
       </c>
       <c r="R4">
-        <v>3.78381200982952</v>
+        <v>46.3539664203</v>
       </c>
       <c r="S4">
-        <v>0.1639743956213021</v>
+        <v>0.1275507044473407</v>
       </c>
       <c r="T4">
-        <v>0.1639743956213021</v>
+        <v>0.1504889713222968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H5">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I5">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J5">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.8900399556365</v>
+        <v>24.944113</v>
       </c>
       <c r="N5">
-        <v>24.8900399556365</v>
+        <v>74.832339</v>
       </c>
       <c r="O5">
-        <v>0.4029270044185342</v>
+        <v>0.3972582161823637</v>
       </c>
       <c r="P5">
-        <v>0.4029270044185342</v>
+        <v>0.4248268632014138</v>
       </c>
       <c r="Q5">
-        <v>5.361949007517441</v>
+        <v>6.991044976988334</v>
       </c>
       <c r="R5">
-        <v>5.361949007517441</v>
+        <v>62.91940479289501</v>
       </c>
       <c r="S5">
-        <v>0.232364172843652</v>
+        <v>0.173133283395281</v>
       </c>
       <c r="T5">
-        <v>0.232364172843652</v>
+        <v>0.2042689598046415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H6">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I6">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J6">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.78910735652667</v>
+        <v>3.839642666666666</v>
       </c>
       <c r="N6">
-        <v>3.78910735652667</v>
+        <v>11.518928</v>
       </c>
       <c r="O6">
-        <v>0.06133914125114868</v>
+        <v>0.06114988320240908</v>
       </c>
       <c r="P6">
-        <v>0.06133914125114868</v>
+        <v>0.06539351990164217</v>
       </c>
       <c r="Q6">
-        <v>0.8162703019327338</v>
+        <v>1.076130250782222</v>
       </c>
       <c r="R6">
-        <v>0.8162703019327338</v>
+        <v>9.68517225704</v>
       </c>
       <c r="S6">
-        <v>0.03537369961174902</v>
+        <v>0.02665037405597916</v>
       </c>
       <c r="T6">
-        <v>0.03537369961174902</v>
+        <v>0.03144308292467723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H7">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I7">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J7">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.37133957146976</v>
+        <v>7.3719375</v>
       </c>
       <c r="N7">
-        <v>7.37133957146976</v>
+        <v>14.743875</v>
       </c>
       <c r="O7">
-        <v>0.1193293292167461</v>
+        <v>0.1174049660959231</v>
       </c>
       <c r="P7">
-        <v>0.1193293292167461</v>
+        <v>0.08370170238409551</v>
       </c>
       <c r="Q7">
-        <v>1.587974425503712</v>
+        <v>2.0661206365625</v>
       </c>
       <c r="R7">
-        <v>1.587974425503712</v>
+        <v>12.396723819375</v>
       </c>
       <c r="S7">
-        <v>0.06881608970203237</v>
+        <v>0.05116749368317083</v>
       </c>
       <c r="T7">
-        <v>0.06881608970203237</v>
+        <v>0.0402461830003691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H8">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I8">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J8">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.84004513116872</v>
+        <v>4.852247500000001</v>
       </c>
       <c r="N8">
-        <v>4.84004513116872</v>
+        <v>9.704495000000001</v>
       </c>
       <c r="O8">
-        <v>0.07835201909793209</v>
+        <v>0.07727655765211351</v>
       </c>
       <c r="P8">
-        <v>0.07835201909793209</v>
+        <v>0.05509289466154204</v>
       </c>
       <c r="Q8">
-        <v>0.7653528913919007</v>
+        <v>0.5847136153241668</v>
       </c>
       <c r="R8">
-        <v>0.7653528913919007</v>
+        <v>3.508281691945001</v>
       </c>
       <c r="S8">
-        <v>0.03316715457242213</v>
+        <v>0.01448043724510674</v>
       </c>
       <c r="T8">
-        <v>0.03316715457242213</v>
+        <v>0.01138969852423328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H9">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I9">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J9">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.31817722710407</v>
+        <v>3.405918</v>
       </c>
       <c r="N9">
-        <v>3.31817722710407</v>
+        <v>10.217754</v>
       </c>
       <c r="O9">
-        <v>0.05371559116135823</v>
+        <v>0.05424241419782711</v>
       </c>
       <c r="P9">
-        <v>0.05371559116135823</v>
+        <v>0.05800669120851211</v>
       </c>
       <c r="Q9">
-        <v>0.5247010030052407</v>
+        <v>0.410425607366</v>
       </c>
       <c r="R9">
-        <v>0.5247010030052407</v>
+        <v>3.693830466294</v>
       </c>
       <c r="S9">
-        <v>0.02273832040972664</v>
+        <v>0.01016419336832663</v>
       </c>
       <c r="T9">
-        <v>0.02273832040972664</v>
+        <v>0.01199208589986174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,49 +1036,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H10">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I10">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J10">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.5643654904653</v>
+        <v>18.37682</v>
       </c>
       <c r="N10">
-        <v>17.5643654904653</v>
+        <v>55.13046</v>
       </c>
       <c r="O10">
-        <v>0.2843369148542807</v>
+        <v>0.2926679626693635</v>
       </c>
       <c r="P10">
-        <v>0.2843369148542807</v>
+        <v>0.3129783286427946</v>
       </c>
       <c r="Q10">
-        <v>2.777440612489844</v>
+        <v>2.214474191673333</v>
       </c>
       <c r="R10">
-        <v>2.777440612489844</v>
+        <v>19.93026772506</v>
       </c>
       <c r="S10">
-        <v>0.1203625192329786</v>
+        <v>0.05484147063286086</v>
       </c>
       <c r="T10">
-        <v>0.1203625192329786</v>
+        <v>0.06470396645083562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H11">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I11">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J11">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.8900399556365</v>
+        <v>24.944113</v>
       </c>
       <c r="N11">
-        <v>24.8900399556365</v>
+        <v>74.832339</v>
       </c>
       <c r="O11">
-        <v>0.4029270044185342</v>
+        <v>0.3972582161823637</v>
       </c>
       <c r="P11">
-        <v>0.4029270044185342</v>
+        <v>0.4248268632014138</v>
       </c>
       <c r="Q11">
-        <v>3.935844301167999</v>
+        <v>3.005857078247667</v>
       </c>
       <c r="R11">
-        <v>3.935844301167999</v>
+        <v>27.052713704229</v>
       </c>
       <c r="S11">
-        <v>0.1705628315748822</v>
+        <v>0.07444007399279433</v>
       </c>
       <c r="T11">
-        <v>0.1705628315748822</v>
+        <v>0.08782711321642442</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H12">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I12">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J12">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.78910735652667</v>
+        <v>3.839642666666666</v>
       </c>
       <c r="N12">
-        <v>3.78910735652667</v>
+        <v>11.518928</v>
       </c>
       <c r="O12">
-        <v>0.06133914125114868</v>
+        <v>0.06114988320240908</v>
       </c>
       <c r="P12">
-        <v>0.06133914125114868</v>
+        <v>0.06539351990164217</v>
       </c>
       <c r="Q12">
-        <v>0.5991688491573522</v>
+        <v>0.4626910200231111</v>
       </c>
       <c r="R12">
-        <v>0.5991688491573522</v>
+        <v>4.164219180208</v>
       </c>
       <c r="S12">
-        <v>0.02596544163939966</v>
+        <v>0.01145854672052507</v>
       </c>
       <c r="T12">
-        <v>0.02596544163939966</v>
+        <v>0.01351921117403321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1205036666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.361511</v>
+      </c>
+      <c r="I13">
+        <v>0.1873846051773594</v>
+      </c>
+      <c r="J13">
+        <v>0.2067362514568315</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.3719375</v>
+      </c>
+      <c r="N13">
+        <v>14.743875</v>
+      </c>
+      <c r="O13">
+        <v>0.1174049660959231</v>
+      </c>
+      <c r="P13">
+        <v>0.08370170238409551</v>
+      </c>
+      <c r="Q13">
+        <v>0.8883454991875001</v>
+      </c>
+      <c r="R13">
+        <v>5.330072995125</v>
+      </c>
+      <c r="S13">
+        <v>0.02199988321774582</v>
+      </c>
+      <c r="T13">
+        <v>0.01730417619144324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.061722</v>
+      </c>
+      <c r="H14">
+        <v>0.185166</v>
+      </c>
+      <c r="I14">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J14">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.852247500000001</v>
+      </c>
+      <c r="N14">
+        <v>9.704495000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.07727655765211351</v>
+      </c>
+      <c r="P14">
+        <v>0.05509289466154204</v>
+      </c>
+      <c r="Q14">
+        <v>0.2994904201950001</v>
+      </c>
+      <c r="R14">
+        <v>1.79694252117</v>
+      </c>
+      <c r="S14">
+        <v>0.007416882592583449</v>
+      </c>
+      <c r="T14">
+        <v>0.005833805657194885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.061722</v>
+      </c>
+      <c r="H15">
+        <v>0.185166</v>
+      </c>
+      <c r="I15">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J15">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.405918</v>
+      </c>
+      <c r="N15">
+        <v>10.217754</v>
+      </c>
+      <c r="O15">
+        <v>0.05424241419782711</v>
+      </c>
+      <c r="P15">
+        <v>0.05800669120851211</v>
+      </c>
+      <c r="Q15">
+        <v>0.210220070796</v>
+      </c>
+      <c r="R15">
+        <v>1.891980637164</v>
+      </c>
+      <c r="S15">
+        <v>0.005206101693280616</v>
+      </c>
+      <c r="T15">
+        <v>0.006142348580634608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.061722</v>
+      </c>
+      <c r="H16">
+        <v>0.185166</v>
+      </c>
+      <c r="I16">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J16">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.37682</v>
+      </c>
+      <c r="N16">
+        <v>55.13046</v>
+      </c>
+      <c r="O16">
+        <v>0.2926679626693635</v>
+      </c>
+      <c r="P16">
+        <v>0.3129783286427946</v>
+      </c>
+      <c r="Q16">
+        <v>1.13425408404</v>
+      </c>
+      <c r="R16">
+        <v>10.20828675636</v>
+      </c>
+      <c r="S16">
+        <v>0.02808981124005718</v>
+      </c>
+      <c r="T16">
+        <v>0.03314138339313445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.061722</v>
+      </c>
+      <c r="H17">
+        <v>0.185166</v>
+      </c>
+      <c r="I17">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J17">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.944113</v>
+      </c>
+      <c r="N17">
+        <v>74.832339</v>
+      </c>
+      <c r="O17">
+        <v>0.3972582161823637</v>
+      </c>
+      <c r="P17">
+        <v>0.4248268632014138</v>
+      </c>
+      <c r="Q17">
+        <v>1.539600542586</v>
+      </c>
+      <c r="R17">
+        <v>13.856404883274</v>
+      </c>
+      <c r="S17">
+        <v>0.03812821944823188</v>
+      </c>
+      <c r="T17">
+        <v>0.04498506337520142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.061722</v>
+      </c>
+      <c r="H18">
+        <v>0.185166</v>
+      </c>
+      <c r="I18">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J18">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.839642666666666</v>
+      </c>
+      <c r="N18">
+        <v>11.518928</v>
+      </c>
+      <c r="O18">
+        <v>0.06114988320240908</v>
+      </c>
+      <c r="P18">
+        <v>0.06539351990164217</v>
+      </c>
+      <c r="Q18">
+        <v>0.236990424672</v>
+      </c>
+      <c r="R18">
+        <v>2.132913822048</v>
+      </c>
+      <c r="S18">
+        <v>0.005869069715866862</v>
+      </c>
+      <c r="T18">
+        <v>0.00692454242402315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.061722</v>
+      </c>
+      <c r="H19">
+        <v>0.185166</v>
+      </c>
+      <c r="I19">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J19">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.3719375</v>
+      </c>
+      <c r="N19">
+        <v>14.743875</v>
+      </c>
+      <c r="O19">
+        <v>0.1174049660959231</v>
+      </c>
+      <c r="P19">
+        <v>0.08370170238409551</v>
+      </c>
+      <c r="Q19">
+        <v>0.455010726375</v>
+      </c>
+      <c r="R19">
+        <v>2.73006435825</v>
+      </c>
+      <c r="S19">
+        <v>0.01126834418841231</v>
+      </c>
+      <c r="T19">
+        <v>0.008863202194856529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.180588</v>
+      </c>
+      <c r="H20">
+        <v>0.361176</v>
+      </c>
+      <c r="I20">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J20">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.852247500000001</v>
+      </c>
+      <c r="N20">
+        <v>9.704495000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.07727655765211351</v>
+      </c>
+      <c r="P20">
+        <v>0.05509289466154204</v>
+      </c>
+      <c r="Q20">
+        <v>0.8762576715300001</v>
+      </c>
+      <c r="R20">
+        <v>3.50503068612</v>
+      </c>
+      <c r="S20">
+        <v>0.02170052807150546</v>
+      </c>
+      <c r="T20">
+        <v>0.01137914407635862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.180588</v>
+      </c>
+      <c r="H21">
+        <v>0.361176</v>
+      </c>
+      <c r="I21">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J21">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.405918</v>
+      </c>
+      <c r="N21">
+        <v>10.217754</v>
+      </c>
+      <c r="O21">
+        <v>0.05424241419782711</v>
+      </c>
+      <c r="P21">
+        <v>0.05800669120851211</v>
+      </c>
+      <c r="Q21">
+        <v>0.615067919784</v>
+      </c>
+      <c r="R21">
+        <v>3.690407518704</v>
+      </c>
+      <c r="S21">
+        <v>0.01523216183186157</v>
+      </c>
+      <c r="T21">
+        <v>0.0119809732400078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.180588</v>
+      </c>
+      <c r="H22">
+        <v>0.361176</v>
+      </c>
+      <c r="I22">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J22">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.37682</v>
+      </c>
+      <c r="N22">
+        <v>55.13046</v>
+      </c>
+      <c r="O22">
+        <v>0.2926679626693635</v>
+      </c>
+      <c r="P22">
+        <v>0.3129783286427946</v>
+      </c>
+      <c r="Q22">
+        <v>3.31863317016</v>
+      </c>
+      <c r="R22">
+        <v>19.91179902096</v>
+      </c>
+      <c r="S22">
+        <v>0.08218597634910481</v>
+      </c>
+      <c r="T22">
+        <v>0.0646440074765277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.158129288188495</v>
-      </c>
-      <c r="H13">
-        <v>0.158129288188495</v>
-      </c>
-      <c r="I13">
-        <v>0.4233095069441229</v>
-      </c>
-      <c r="J13">
-        <v>0.4233095069441229</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.37133957146976</v>
-      </c>
-      <c r="N13">
-        <v>7.37133957146976</v>
-      </c>
-      <c r="O13">
-        <v>0.1193293292167461</v>
-      </c>
-      <c r="P13">
-        <v>0.1193293292167461</v>
-      </c>
-      <c r="Q13">
-        <v>1.165624679432199</v>
-      </c>
-      <c r="R13">
-        <v>1.165624679432199</v>
-      </c>
-      <c r="S13">
-        <v>0.0505132395147137</v>
-      </c>
-      <c r="T13">
-        <v>0.0505132395147137</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.180588</v>
+      </c>
+      <c r="H23">
+        <v>0.361176</v>
+      </c>
+      <c r="I23">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J23">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>24.944113</v>
+      </c>
+      <c r="N23">
+        <v>74.832339</v>
+      </c>
+      <c r="O23">
+        <v>0.3972582161823637</v>
+      </c>
+      <c r="P23">
+        <v>0.4248268632014138</v>
+      </c>
+      <c r="Q23">
+        <v>4.504607478444</v>
+      </c>
+      <c r="R23">
+        <v>27.027644870664</v>
+      </c>
+      <c r="S23">
+        <v>0.1115566393460565</v>
+      </c>
+      <c r="T23">
+        <v>0.08774572680514646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.180588</v>
+      </c>
+      <c r="H24">
+        <v>0.361176</v>
+      </c>
+      <c r="I24">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J24">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.839642666666666</v>
+      </c>
+      <c r="N24">
+        <v>11.518928</v>
+      </c>
+      <c r="O24">
+        <v>0.06114988320240908</v>
+      </c>
+      <c r="P24">
+        <v>0.06539351990164217</v>
+      </c>
+      <c r="Q24">
+        <v>0.6933933898879999</v>
+      </c>
+      <c r="R24">
+        <v>4.160360339327999</v>
+      </c>
+      <c r="S24">
+        <v>0.01717189271003799</v>
+      </c>
+      <c r="T24">
+        <v>0.01350668337890857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.180588</v>
+      </c>
+      <c r="H25">
+        <v>0.361176</v>
+      </c>
+      <c r="I25">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J25">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.3719375</v>
+      </c>
+      <c r="N25">
+        <v>14.743875</v>
+      </c>
+      <c r="O25">
+        <v>0.1174049660959231</v>
+      </c>
+      <c r="P25">
+        <v>0.08370170238409551</v>
+      </c>
+      <c r="Q25">
+        <v>1.33128344925</v>
+      </c>
+      <c r="R25">
+        <v>5.325133796999999</v>
+      </c>
+      <c r="S25">
+        <v>0.03296924500659411</v>
+      </c>
+      <c r="T25">
+        <v>0.01728814099742664</v>
       </c>
     </row>
   </sheetData>
